--- a/Dataset/out.xlsx
+++ b/Dataset/out.xlsx
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.789996922703322</v>
+        <v>3.901877363981021</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.98456875952845</v>
+        <v>27.37928045966299</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>143.13</v>
+        <v>165.07</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.216675584929412</v>
+        <v>13.55281357092294</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.21286371943257</v>
+        <v>23.31363037045772</v>
       </c>
     </row>
     <row r="7">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22037.13</v>
+        <v>22458.86</v>
       </c>
     </row>
     <row r="8">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.391656336030373</v>
+        <v>17.47927705451457</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.30516754024349</v>
+        <v>30.04905407615558</v>
       </c>
     </row>
     <row r="10">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>251.89</v>
+        <v>252.03</v>
       </c>
     </row>
     <row r="11">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12.0394618959135</v>
+        <v>16.59119787867385</v>
       </c>
     </row>
     <row r="12">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16.14957199798669</v>
+        <v>21.17699760644731</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>825.4400000000001</v>
+        <v>823.08</v>
       </c>
     </row>
     <row r="14">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.14910061520768</v>
+        <v>33.93491027199171</v>
       </c>
     </row>
     <row r="15">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37.43787626175701</v>
+        <v>52.76758970776385</v>
       </c>
     </row>
     <row r="16">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>263.14</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.700053503963167</v>
+        <v>13.10858591663671</v>
       </c>
     </row>
     <row r="18">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.60350979374436</v>
+        <v>26.96135158615327</v>
       </c>
     </row>
     <row r="19">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>332.54</v>
+        <v>352.02</v>
       </c>
     </row>
     <row r="20">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.767670514101315</v>
+        <v>-39.52152327141674</v>
       </c>
     </row>
     <row r="21">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>37.22536429627716</v>
+        <v>56.19391333199417</v>
       </c>
     </row>
     <row r="22">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.99</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="23">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11.92832814068092</v>
+        <v>21.13021247624598</v>
       </c>
     </row>
     <row r="24">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.02940642917659</v>
+        <v>23.51875656458044</v>
       </c>
     </row>
     <row r="25">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>389.98</v>
+        <v>381.42</v>
       </c>
     </row>
     <row r="26">
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11.25354079135662</v>
+        <v>20.50478107088666</v>
       </c>
     </row>
     <row r="27">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34.57639420823772</v>
+        <v>33.99585270714011</v>
       </c>
     </row>
     <row r="28">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>301.4</v>
+        <v>327.68</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.960895120312411</v>
+        <v>4.723578943094832</v>
       </c>
     </row>
     <row r="30">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21.71789212795954</v>
+        <v>27.41429283342478</v>
       </c>
     </row>
     <row r="31">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>271.91</v>
+        <v>300.88</v>
       </c>
     </row>
     <row r="32">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12.92193552241981</v>
+        <v>29.12019833063611</v>
       </c>
     </row>
     <row r="33">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34.28503375010189</v>
+        <v>36.19473116852199</v>
       </c>
     </row>
     <row r="34">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>175.48</v>
+        <v>136.4</v>
       </c>
     </row>
     <row r="35">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.919790142632564</v>
+        <v>6.722609380995276</v>
       </c>
     </row>
     <row r="36">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19.07190767084687</v>
+        <v>23.11211519582222</v>
       </c>
     </row>
     <row r="37">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>154.94</v>
+        <v>186.05</v>
       </c>
     </row>
     <row r="38">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.748088309526648</v>
+        <v>13.90147439688657</v>
       </c>
     </row>
     <row r="39">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>18.22321627840718</v>
+        <v>25.18441805161391</v>
       </c>
     </row>
     <row r="40">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>253.45</v>
+        <v>295.16</v>
       </c>
     </row>
     <row r="41">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.691243880287193</v>
+        <v>13.80499713573131</v>
       </c>
     </row>
     <row r="42">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>21.02602365464942</v>
+        <v>23.46542398131303</v>
       </c>
     </row>
     <row r="43">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1262.6</v>
+        <v>1292.58</v>
       </c>
     </row>
   </sheetData>
